--- a/analytics_csv/weekly_data.xlsx
+++ b/analytics_csv/weekly_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,10 +579,10 @@
         <v>114.8199996948242</v>
       </c>
       <c r="G5" t="n">
-        <v>7.169998168945312</v>
+        <v>7.169998168945298</v>
       </c>
       <c r="H5" t="n">
-        <v>6.244555119319093</v>
+        <v>6.244555119319081</v>
       </c>
     </row>
     <row r="6">
@@ -631,10 +631,10 @@
         <v>133.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.20800018310547</v>
+        <v>-11.20800018310548</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.395505755135183</v>
+        <v>-8.395505755135193</v>
       </c>
     </row>
     <row r="8">
@@ -674,19 +674,19 @@
         <v>108.9000015258789</v>
       </c>
       <c r="D9" t="n">
-        <v>99.51000213623047</v>
+        <v>99.51000213623048</v>
       </c>
       <c r="E9" t="n">
-        <v>99.51000213623047</v>
+        <v>99.51000213623048</v>
       </c>
       <c r="F9" t="n">
         <v>100.4369964599609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.9269943237304688</v>
+        <v>-0.9269943237304545</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.9229610167604063</v>
+        <v>-0.9229610167603921</v>
       </c>
     </row>
     <row r="10">
@@ -758,13 +758,13 @@
         <v>74.56109619140625</v>
       </c>
       <c r="F12" t="n">
-        <v>97.51000213623047</v>
+        <v>97.51000213623048</v>
       </c>
       <c r="G12" t="n">
-        <v>-22.94890594482422</v>
+        <v>-22.94890594482423</v>
       </c>
       <c r="H12" t="n">
-        <v>-23.53492507646803</v>
+        <v>-23.53492507646805</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +775,7 @@
         <v>87.91001565115792</v>
       </c>
       <c r="C13" t="n">
-        <v>98.13390350341797</v>
+        <v>98.13390350341795</v>
       </c>
       <c r="D13" t="n">
         <v>76.51599884033203</v>
@@ -836,13 +836,13 @@
         <v>99.75599670410156</v>
       </c>
       <c r="F15" t="n">
-        <v>91.99800109863281</v>
+        <v>91.9980010986328</v>
       </c>
       <c r="G15" t="n">
-        <v>7.75799560546875</v>
+        <v>7.757995605468764</v>
       </c>
       <c r="H15" t="n">
-        <v>8.432787139745846</v>
+        <v>8.432787139745864</v>
       </c>
     </row>
     <row r="16">
@@ -865,10 +865,10 @@
         <v>98.59999847412109</v>
       </c>
       <c r="G16" t="n">
-        <v>6.543998718261719</v>
+        <v>6.543998718261705</v>
       </c>
       <c r="H16" t="n">
-        <v>6.636915638471617</v>
+        <v>6.636915638471602</v>
       </c>
     </row>
     <row r="17">
@@ -891,10 +891,10 @@
         <v>105.120002746582</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1200027465820312</v>
+        <v>-0.1200027465820455</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.114157860965175</v>
+        <v>-0.1141578609651885</v>
       </c>
     </row>
     <row r="18">
@@ -943,10 +943,10 @@
         <v>113.379997253418</v>
       </c>
       <c r="G19" t="n">
-        <v>8.731002807617188</v>
+        <v>8.731002807617202</v>
       </c>
       <c r="H19" t="n">
-        <v>7.700655335263717</v>
+        <v>7.700655335263732</v>
       </c>
     </row>
     <row r="20">
@@ -1226,13 +1226,13 @@
         <v>326.6199951171875</v>
       </c>
       <c r="F30" t="n">
-        <v>214.6600036621094</v>
+        <v>214.6600036621093</v>
       </c>
       <c r="G30" t="n">
-        <v>111.9599914550781</v>
+        <v>111.9599914550782</v>
       </c>
       <c r="H30" t="n">
-        <v>52.15689441211013</v>
+        <v>52.15689441211016</v>
       </c>
     </row>
     <row r="31">
@@ -1301,16 +1301,16 @@
         <v>799.1099853515625</v>
       </c>
       <c r="E33" t="n">
-        <v>955.8499755859375</v>
+        <v>955.8499755859376</v>
       </c>
       <c r="F33" t="n">
         <v>773.02001953125</v>
       </c>
       <c r="G33" t="n">
-        <v>182.8299560546875</v>
+        <v>182.8299560546876</v>
       </c>
       <c r="H33" t="n">
-        <v>23.65138695444827</v>
+        <v>23.65138695444828</v>
       </c>
     </row>
     <row r="34">
@@ -1740,19 +1740,19 @@
         <v>583.9169921875</v>
       </c>
       <c r="D50" t="n">
-        <v>460.2730102539062</v>
+        <v>460.2730102539063</v>
       </c>
       <c r="E50" t="n">
-        <v>460.2730102539062</v>
+        <v>460.2730102539063</v>
       </c>
       <c r="F50" t="n">
         <v>562.5070190429688</v>
       </c>
       <c r="G50" t="n">
-        <v>-102.2340087890625</v>
+        <v>-102.2340087890624</v>
       </c>
       <c r="H50" t="n">
-        <v>-18.17470810639841</v>
+        <v>-18.1747081063984</v>
       </c>
     </row>
     <row r="51">
@@ -1775,10 +1775,10 @@
         <v>462.2990112304688</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.800018310546875</v>
+        <v>-1.800018310546932</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.3893623535460076</v>
+        <v>-0.3893623535460198</v>
       </c>
     </row>
     <row r="52">
@@ -1954,13 +1954,13 @@
         <v>571.5880126953125</v>
       </c>
       <c r="F58" t="n">
-        <v>446.0759887695312</v>
+        <v>446.0759887695313</v>
       </c>
       <c r="G58" t="n">
         <v>125.5120239257812</v>
       </c>
       <c r="H58" t="n">
-        <v>28.13691547756184</v>
+        <v>28.13691547756182</v>
       </c>
     </row>
     <row r="59">
@@ -2312,19 +2312,19 @@
         <v>511.5700073242188</v>
       </c>
       <c r="D72" t="n">
-        <v>477.7630004882812</v>
+        <v>477.7630004882813</v>
       </c>
       <c r="E72" t="n">
-        <v>477.7630004882812</v>
+        <v>477.7630004882813</v>
       </c>
       <c r="F72" t="n">
         <v>508.2200012207031</v>
       </c>
       <c r="G72" t="n">
-        <v>-30.45700073242188</v>
+        <v>-30.45700073242182</v>
       </c>
       <c r="H72" t="n">
-        <v>-5.99287723018902</v>
+        <v>-5.992877230189009</v>
       </c>
     </row>
     <row r="73">
@@ -2347,10 +2347,10 @@
         <v>477.7869873046875</v>
       </c>
       <c r="G73" t="n">
-        <v>4.49102783203125</v>
+        <v>4.491027832031307</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9399644509713898</v>
+        <v>0.9399644509714018</v>
       </c>
     </row>
     <row r="74">
@@ -2477,10 +2477,10 @@
         <v>320.3890075683594</v>
       </c>
       <c r="G78" t="n">
-        <v>58.16000366210938</v>
+        <v>58.16000366210943</v>
       </c>
       <c r="H78" t="n">
-        <v>18.15293355521885</v>
+        <v>18.15293355521887</v>
       </c>
     </row>
     <row r="79">
@@ -2673,7 +2673,7 @@
         <v>375.9868600027902</v>
       </c>
       <c r="C86" t="n">
-        <v>381.3150024414062</v>
+        <v>381.3150024414063</v>
       </c>
       <c r="D86" t="n">
         <v>369.60400390625</v>
@@ -2699,7 +2699,7 @@
         <v>351.7927115304129</v>
       </c>
       <c r="C87" t="n">
-        <v>361.9089965820312</v>
+        <v>361.9089965820313</v>
       </c>
       <c r="D87" t="n">
         <v>346.364990234375</v>
@@ -2841,10 +2841,10 @@
         <v>266.14599609375</v>
       </c>
       <c r="G92" t="n">
-        <v>-55.80699157714844</v>
+        <v>-55.80699157714841</v>
       </c>
       <c r="H92" t="n">
-        <v>-20.96856326836884</v>
+        <v>-20.96856326836883</v>
       </c>
     </row>
     <row r="93">
@@ -2855,22 +2855,22 @@
         <v>231.5604291643415</v>
       </c>
       <c r="C93" t="n">
-        <v>253.7180023193359</v>
+        <v>253.718002319336</v>
       </c>
       <c r="D93" t="n">
         <v>211.3150024414062</v>
       </c>
       <c r="E93" t="n">
-        <v>253.7180023193359</v>
+        <v>253.718002319336</v>
       </c>
       <c r="F93" t="n">
         <v>211.4709930419922</v>
       </c>
       <c r="G93" t="n">
-        <v>42.24700927734375</v>
+        <v>42.24700927734378</v>
       </c>
       <c r="H93" t="n">
-        <v>19.97768519910184</v>
+        <v>19.97768519910185</v>
       </c>
     </row>
     <row r="94">
@@ -2910,7 +2910,7 @@
         <v>238.22900390625</v>
       </c>
       <c r="D95" t="n">
-        <v>217.1109924316406</v>
+        <v>217.1109924316407</v>
       </c>
       <c r="E95" t="n">
         <v>223.4120025634766</v>
@@ -2936,19 +2936,19 @@
         <v>257.3210144042969</v>
       </c>
       <c r="D96" t="n">
-        <v>219.1849975585938</v>
+        <v>219.1849975585937</v>
       </c>
       <c r="E96" t="n">
         <v>234.8249969482422</v>
       </c>
       <c r="F96" t="n">
-        <v>223.3890075683594</v>
+        <v>223.3890075683593</v>
       </c>
       <c r="G96" t="n">
-        <v>11.43598937988281</v>
+        <v>11.43598937988284</v>
       </c>
       <c r="H96" t="n">
-        <v>5.119316077530485</v>
+        <v>5.119316077530498</v>
       </c>
     </row>
     <row r="97">
@@ -2962,7 +2962,7 @@
         <v>244.5339965820312</v>
       </c>
       <c r="D97" t="n">
-        <v>233.8430023193359</v>
+        <v>233.843002319336</v>
       </c>
       <c r="E97" t="n">
         <v>235.9770050048828</v>
@@ -3043,16 +3043,16 @@
         <v>281.885009765625</v>
       </c>
       <c r="E100" t="n">
-        <v>286.3930053710938</v>
+        <v>286.3930053710937</v>
       </c>
       <c r="F100" t="n">
         <v>274.81201171875</v>
       </c>
       <c r="G100" t="n">
-        <v>11.58099365234375</v>
+        <v>11.58099365234369</v>
       </c>
       <c r="H100" t="n">
-        <v>4.214151186446701</v>
+        <v>4.214151186446681</v>
       </c>
     </row>
     <row r="101">
@@ -3072,13 +3072,13 @@
         <v>267.9599914550781</v>
       </c>
       <c r="F101" t="n">
-        <v>285.6849975585938</v>
+        <v>285.6849975585937</v>
       </c>
       <c r="G101" t="n">
-        <v>-17.72500610351562</v>
+        <v>-17.72500610351557</v>
       </c>
       <c r="H101" t="n">
-        <v>-6.204388139030732</v>
+        <v>-6.204388139030713</v>
       </c>
     </row>
     <row r="102">
@@ -3127,10 +3127,10 @@
         <v>242.8789978027344</v>
       </c>
       <c r="G103" t="n">
-        <v>17.718994140625</v>
+        <v>17.71899414062497</v>
       </c>
       <c r="H103" t="n">
-        <v>7.295399890861011</v>
+        <v>7.295399890860999</v>
       </c>
     </row>
     <row r="104">
@@ -3144,7 +3144,7 @@
         <v>255.4920043945312</v>
       </c>
       <c r="D104" t="n">
-        <v>236.0720062255859</v>
+        <v>236.072006225586</v>
       </c>
       <c r="E104" t="n">
         <v>236.1529998779297</v>
@@ -3179,10 +3179,10 @@
         <v>235.9499969482422</v>
       </c>
       <c r="G105" t="n">
-        <v>-13.34999084472656</v>
+        <v>-13.34999084472659</v>
       </c>
       <c r="H105" t="n">
-        <v>-5.657974578255666</v>
+        <v>-5.657974578255677</v>
       </c>
     </row>
     <row r="106">
@@ -3231,10 +3231,10 @@
         <v>219.4290008544922</v>
       </c>
       <c r="G107" t="n">
-        <v>20.92900085449219</v>
+        <v>20.92900085449222</v>
       </c>
       <c r="H107" t="n">
-        <v>9.537937452657241</v>
+        <v>9.537937452657253</v>
       </c>
     </row>
     <row r="108">
@@ -3300,7 +3300,7 @@
         <v>240.9530029296875</v>
       </c>
       <c r="D110" t="n">
-        <v>231.9470062255859</v>
+        <v>231.947006225586</v>
       </c>
       <c r="E110" t="n">
         <v>240.9530029296875</v>
@@ -3364,7 +3364,7 @@
         <v>-7.352005004882812</v>
       </c>
       <c r="H112" t="n">
-        <v>-3.193288950893227</v>
+        <v>-3.193288950893226</v>
       </c>
     </row>
     <row r="113">
@@ -3378,7 +3378,7 @@
         <v>233.5429992675781</v>
       </c>
       <c r="D113" t="n">
-        <v>228.4889984130859</v>
+        <v>228.488998413086</v>
       </c>
       <c r="E113" t="n">
         <v>233.5429992675781</v>
@@ -3387,10 +3387,10 @@
         <v>222.8789978027344</v>
       </c>
       <c r="G113" t="n">
-        <v>10.66400146484375</v>
+        <v>10.66400146484366</v>
       </c>
       <c r="H113" t="n">
-        <v>4.784659644908417</v>
+        <v>4.784659644908378</v>
       </c>
     </row>
     <row r="114">
@@ -3407,16 +3407,16 @@
         <v>236.822998046875</v>
       </c>
       <c r="E114" t="n">
-        <v>243.9440002441406</v>
+        <v>243.9440002441407</v>
       </c>
       <c r="F114" t="n">
         <v>233.4219970703125</v>
       </c>
       <c r="G114" t="n">
-        <v>10.52200317382812</v>
+        <v>10.52200317382815</v>
       </c>
       <c r="H114" t="n">
-        <v>4.507717055757447</v>
+        <v>4.507717055757459</v>
       </c>
     </row>
     <row r="115">
@@ -3439,10 +3439,10 @@
         <v>243.968994140625</v>
       </c>
       <c r="G115" t="n">
-        <v>5.042007446289062</v>
+        <v>5.042007446289091</v>
       </c>
       <c r="H115" t="n">
-        <v>2.066659111355283</v>
+        <v>2.066659111355294</v>
       </c>
     </row>
     <row r="116">
@@ -3560,7 +3560,7 @@
         <v>294.427001953125</v>
       </c>
       <c r="D120" t="n">
-        <v>281.6010131835938</v>
+        <v>281.6010131835937</v>
       </c>
       <c r="E120" t="n">
         <v>282.614013671875</v>
@@ -3586,7 +3586,7 @@
         <v>285.2179870605469</v>
       </c>
       <c r="D121" t="n">
-        <v>260.9970092773438</v>
+        <v>260.9970092773437</v>
       </c>
       <c r="E121" t="n">
         <v>265.0830078125</v>
@@ -3635,7 +3635,7 @@
         <v>231.7452893938337</v>
       </c>
       <c r="C123" t="n">
-        <v>257.9760131835938</v>
+        <v>257.9760131835937</v>
       </c>
       <c r="D123" t="n">
         <v>211.0789947509766</v>
@@ -3673,10 +3673,10 @@
         <v>228.1119995117188</v>
       </c>
       <c r="G124" t="n">
-        <v>0.6490020751953125</v>
+        <v>0.6490020751953409</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2845102741567839</v>
+        <v>0.2845102741567963</v>
       </c>
     </row>
     <row r="125">
@@ -3687,16 +3687,16 @@
         <v>231.400142124721</v>
       </c>
       <c r="C125" t="n">
-        <v>239.8399963378906</v>
+        <v>239.8399963378907</v>
       </c>
       <c r="D125" t="n">
         <v>227.1829986572266</v>
       </c>
       <c r="E125" t="n">
-        <v>239.8399963378906</v>
+        <v>239.8399963378907</v>
       </c>
       <c r="F125" t="n">
-        <v>229.1139984130859</v>
+        <v>229.113998413086</v>
       </c>
       <c r="G125" t="n">
         <v>10.72599792480469</v>
@@ -3751,10 +3751,10 @@
         <v>230.6089935302734</v>
       </c>
       <c r="G127" t="n">
-        <v>0.6030120849609375</v>
+        <v>0.6030120849609659</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2614868031509692</v>
+        <v>0.2614868031509816</v>
       </c>
     </row>
     <row r="128">
@@ -3788,13 +3788,13 @@
         <v>42281</v>
       </c>
       <c r="B129" t="n">
-        <v>237.6742837088449</v>
+        <v>237.6742837088448</v>
       </c>
       <c r="C129" t="n">
         <v>239.1419982910156</v>
       </c>
       <c r="D129" t="n">
-        <v>236.0599975585938</v>
+        <v>236.0599975585937</v>
       </c>
       <c r="E129" t="n">
         <v>238.2590026855469</v>
@@ -3829,10 +3829,10 @@
         <v>238.1470031738281</v>
       </c>
       <c r="G130" t="n">
-        <v>8.902999877929688</v>
+        <v>8.902999877929744</v>
       </c>
       <c r="H130" t="n">
-        <v>3.738447160483987</v>
+        <v>3.738447160484012</v>
       </c>
     </row>
     <row r="131">
@@ -3849,16 +3849,16 @@
         <v>245.3079986572266</v>
       </c>
       <c r="E131" t="n">
-        <v>261.6430053710938</v>
+        <v>261.6430053710937</v>
       </c>
       <c r="F131" t="n">
         <v>246.875</v>
       </c>
       <c r="G131" t="n">
-        <v>14.76800537109375</v>
+        <v>14.76800537109369</v>
       </c>
       <c r="H131" t="n">
-        <v>5.981976859177215</v>
+        <v>5.981976859177192</v>
       </c>
     </row>
     <row r="132">
@@ -4106,7 +4106,7 @@
         <v>455.6530151367188</v>
       </c>
       <c r="D141" t="n">
-        <v>417.2739868164062</v>
+        <v>417.2739868164063</v>
       </c>
       <c r="E141" t="n">
         <v>422.822998046875</v>
@@ -4193,10 +4193,10 @@
         <v>448.697998046875</v>
       </c>
       <c r="G144" t="n">
-        <v>-66.39898681640625</v>
+        <v>-66.39898681640619</v>
       </c>
       <c r="H144" t="n">
-        <v>-14.79814643823519</v>
+        <v>-14.79814643823518</v>
       </c>
     </row>
     <row r="145">
@@ -4210,19 +4210,19 @@
         <v>420.2300109863281</v>
       </c>
       <c r="D145" t="n">
-        <v>380.1489868164062</v>
+        <v>380.1489868164063</v>
       </c>
       <c r="E145" t="n">
-        <v>402.9710083007812</v>
+        <v>402.9710083007813</v>
       </c>
       <c r="F145" t="n">
         <v>381.7330017089844</v>
       </c>
       <c r="G145" t="n">
-        <v>21.23800659179688</v>
+        <v>21.23800659179693</v>
       </c>
       <c r="H145" t="n">
-        <v>5.56357624222067</v>
+        <v>5.563576242220684</v>
       </c>
     </row>
     <row r="146">
@@ -4233,7 +4233,7 @@
         <v>383.6622881208147</v>
       </c>
       <c r="C146" t="n">
-        <v>394.9719848632812</v>
+        <v>394.9719848632813</v>
       </c>
       <c r="D146" t="n">
         <v>368.7669982910156</v>
@@ -4389,22 +4389,22 @@
         <v>415.3804277692522</v>
       </c>
       <c r="C152" t="n">
-        <v>421.6900024414062</v>
+        <v>421.6900024414063</v>
       </c>
       <c r="D152" t="n">
         <v>411.6239929199219</v>
       </c>
       <c r="E152" t="n">
-        <v>414.0650024414062</v>
+        <v>414.0650024414063</v>
       </c>
       <c r="F152" t="n">
         <v>407.7569885253906</v>
       </c>
       <c r="G152" t="n">
-        <v>6.308013916015625</v>
+        <v>6.308013916015682</v>
       </c>
       <c r="H152" t="n">
-        <v>1.547003262611851</v>
+        <v>1.547003262611865</v>
       </c>
     </row>
     <row r="153">
@@ -4424,13 +4424,13 @@
         <v>413.7550048828125</v>
       </c>
       <c r="F153" t="n">
-        <v>414.2009887695312</v>
+        <v>414.2009887695313</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.44598388671875</v>
+        <v>-0.4459838867188068</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.1076733032539677</v>
+        <v>-0.1076733032539814</v>
       </c>
     </row>
     <row r="154">
@@ -4479,10 +4479,10 @@
         <v>426.5480041503906</v>
       </c>
       <c r="G155" t="n">
-        <v>-5.644012451171875</v>
+        <v>-5.644012451171818</v>
       </c>
       <c r="H155" t="n">
-        <v>-1.323183415759679</v>
+        <v>-1.323183415759665</v>
       </c>
     </row>
     <row r="156">
@@ -4505,10 +4505,10 @@
         <v>421.2990112304688</v>
       </c>
       <c r="G156" t="n">
-        <v>0.264984130859375</v>
+        <v>0.2649841308593182</v>
       </c>
       <c r="H156" t="n">
-        <v>0.06289692683717628</v>
+        <v>0.06289692683716278</v>
       </c>
     </row>
     <row r="157">
@@ -4525,16 +4525,16 @@
         <v>422.4830017089844</v>
       </c>
       <c r="E157" t="n">
-        <v>427.3989868164062</v>
+        <v>427.3989868164063</v>
       </c>
       <c r="F157" t="n">
         <v>421.8720092773438</v>
       </c>
       <c r="G157" t="n">
-        <v>5.5269775390625</v>
+        <v>5.526977539062557</v>
       </c>
       <c r="H157" t="n">
-        <v>1.31010766714058</v>
+        <v>1.310107667140594</v>
       </c>
     </row>
     <row r="158">
@@ -4545,22 +4545,22 @@
         <v>444.2125723702567</v>
       </c>
       <c r="C158" t="n">
-        <v>458.5549926757812</v>
+        <v>458.5549926757813</v>
       </c>
       <c r="D158" t="n">
         <v>428.5910034179688</v>
       </c>
       <c r="E158" t="n">
-        <v>458.5549926757812</v>
+        <v>458.5549926757813</v>
       </c>
       <c r="F158" t="n">
         <v>427.6109924316406</v>
       </c>
       <c r="G158" t="n">
-        <v>30.94400024414062</v>
+        <v>30.94400024414068</v>
       </c>
       <c r="H158" t="n">
-        <v>7.236483811647439</v>
+        <v>7.236483811647451</v>
       </c>
     </row>
     <row r="159">
@@ -5455,7 +5455,7 @@
         <v>858.4857090541294</v>
       </c>
       <c r="C193" t="n">
-        <v>921.9840087890625</v>
+        <v>921.9840087890624</v>
       </c>
       <c r="D193" t="n">
         <v>792.7139892578125</v>
@@ -5484,7 +5484,7 @@
         <v>998.3250122070312</v>
       </c>
       <c r="D194" t="n">
-        <v>907.6099853515625</v>
+        <v>907.6099853515624</v>
       </c>
       <c r="E194" t="n">
         <v>998.3250122070312</v>
@@ -5542,13 +5542,13 @@
         <v>821.7979736328125</v>
       </c>
       <c r="F196" t="n">
-        <v>913.2440185546875</v>
+        <v>913.2440185546876</v>
       </c>
       <c r="G196" t="n">
-        <v>-91.446044921875</v>
+        <v>-91.44604492187511</v>
       </c>
       <c r="H196" t="n">
-        <v>-10.01331988646351</v>
+        <v>-10.01331988646352</v>
       </c>
     </row>
     <row r="197">
@@ -5559,22 +5559,22 @@
         <v>895.2358485630581</v>
       </c>
       <c r="C197" t="n">
-        <v>924.6729736328125</v>
+        <v>924.6729736328124</v>
       </c>
       <c r="D197" t="n">
         <v>831.5339965820312</v>
       </c>
       <c r="E197" t="n">
-        <v>924.6729736328125</v>
+        <v>924.6729736328124</v>
       </c>
       <c r="F197" t="n">
         <v>821.7830200195312</v>
       </c>
       <c r="G197" t="n">
-        <v>102.8899536132812</v>
+        <v>102.8899536132811</v>
       </c>
       <c r="H197" t="n">
-        <v>12.52033092760129</v>
+        <v>12.52033092760127</v>
       </c>
     </row>
     <row r="198">
@@ -5591,16 +5591,16 @@
         <v>892.68701171875</v>
       </c>
       <c r="E198" t="n">
-        <v>919.4959716796875</v>
+        <v>919.4959716796876</v>
       </c>
       <c r="F198" t="n">
         <v>925.4990234375</v>
       </c>
       <c r="G198" t="n">
-        <v>-6.0030517578125</v>
+        <v>-6.003051757812386</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.6486286431201073</v>
+        <v>-0.6486286431200949</v>
       </c>
     </row>
     <row r="199">
@@ -5620,13 +5620,13 @@
         <v>1027.339965820312</v>
       </c>
       <c r="F199" t="n">
-        <v>920.1510009765625</v>
+        <v>920.1510009765624</v>
       </c>
       <c r="G199" t="n">
-        <v>107.18896484375</v>
+        <v>107.1889648437501</v>
       </c>
       <c r="H199" t="n">
-        <v>11.64906246148617</v>
+        <v>11.64906246148619</v>
       </c>
     </row>
     <row r="200">
@@ -5643,16 +5643,16 @@
         <v>988.6740112304688</v>
       </c>
       <c r="E200" t="n">
-        <v>999.1810302734375</v>
+        <v>999.1810302734376</v>
       </c>
       <c r="F200" t="n">
         <v>1028.400024414062</v>
       </c>
       <c r="G200" t="n">
-        <v>-29.218994140625</v>
+        <v>-29.21899414062489</v>
       </c>
       <c r="H200" t="n">
-        <v>-2.841209008845824</v>
+        <v>-2.841209008845813</v>
       </c>
     </row>
     <row r="201">
@@ -5770,7 +5770,7 @@
         <v>1249.609985351562</v>
       </c>
       <c r="D205" t="n">
-        <v>973.8179931640625</v>
+        <v>973.8179931640624</v>
       </c>
       <c r="E205" t="n">
         <v>1036.739990234375</v>
@@ -5799,16 +5799,16 @@
         <v>937.52001953125</v>
       </c>
       <c r="E206" t="n">
-        <v>966.7249755859375</v>
+        <v>966.7249755859376</v>
       </c>
       <c r="F206" t="n">
         <v>1037.239990234375</v>
       </c>
       <c r="G206" t="n">
-        <v>-70.5150146484375</v>
+        <v>-70.51501464843739</v>
       </c>
       <c r="H206" t="n">
-        <v>-6.798331660207578</v>
+        <v>-6.798331660207567</v>
       </c>
     </row>
     <row r="207">
@@ -12019,10 +12019,10 @@
         <v>61548.80343420646</v>
       </c>
       <c r="G445" t="n">
-        <v>-617.966992026908</v>
+        <v>-617.9669920269007</v>
       </c>
       <c r="H445" t="n">
-        <v>-1.004027629371371</v>
+        <v>-1.004027629371359</v>
       </c>
     </row>
     <row r="446">
@@ -12039,16 +12039,16 @@
         <v>58482.3879400455</v>
       </c>
       <c r="E446" t="n">
-        <v>61318.95776660598</v>
+        <v>61318.95776660599</v>
       </c>
       <c r="F446" t="n">
         <v>60893.92757572503</v>
       </c>
       <c r="G446" t="n">
-        <v>425.0301908809561</v>
+        <v>425.0301908809633</v>
       </c>
       <c r="H446" t="n">
-        <v>0.6979845245692308</v>
+        <v>0.6979845245692428</v>
       </c>
     </row>
     <row r="447">
@@ -12097,10 +12097,10 @@
         <v>63344.06722201008</v>
       </c>
       <c r="G448" t="n">
-        <v>2122.773802024327</v>
+        <v>2122.77380202432</v>
       </c>
       <c r="H448" t="n">
-        <v>3.351180142229215</v>
+        <v>3.351180142229203</v>
       </c>
     </row>
     <row r="449">
@@ -12123,10 +12123,10 @@
         <v>65521.28934209624</v>
       </c>
       <c r="G449" t="n">
-        <v>-6790.812703445554</v>
+        <v>-6790.812703445561</v>
       </c>
       <c r="H449" t="n">
-        <v>-10.36428429848156</v>
+        <v>-10.36428429848157</v>
       </c>
     </row>
     <row r="450">
@@ -12435,10 +12435,10 @@
         <v>42406.7813264058</v>
       </c>
       <c r="G461" t="n">
-        <v>-209.2659858782426</v>
+        <v>-209.2659858782354</v>
       </c>
       <c r="H461" t="n">
-        <v>-0.4934729289344513</v>
+        <v>-0.4934729289344342</v>
       </c>
     </row>
     <row r="462">
@@ -12484,13 +12484,13 @@
         <v>37709.78375343292</v>
       </c>
       <c r="F463" t="n">
-        <v>38423.20987191555</v>
+        <v>38423.20987191556</v>
       </c>
       <c r="G463" t="n">
-        <v>-713.4261184826319</v>
+        <v>-713.4261184826391</v>
       </c>
       <c r="H463" t="n">
-        <v>-1.856758248102775</v>
+        <v>-1.856758248102794</v>
       </c>
     </row>
     <row r="464">
@@ -12513,10 +12513,10 @@
         <v>37706.00126664568</v>
       </c>
       <c r="G464" t="n">
-        <v>713.9821107468888</v>
+        <v>713.9821107468742</v>
       </c>
       <c r="H464" t="n">
-        <v>1.893550328229766</v>
+        <v>1.893550328229727</v>
       </c>
     </row>
     <row r="465">
@@ -12565,10 +12565,10 @@
         <v>37846.31643962368</v>
       </c>
       <c r="G466" t="n">
-        <v>3401.507007210552</v>
+        <v>3401.507007210545</v>
       </c>
       <c r="H466" t="n">
-        <v>8.987683154414736</v>
+        <v>8.987683154414714</v>
       </c>
     </row>
     <row r="467">
@@ -12643,10 +12643,10 @@
         <v>46445.27161962968</v>
       </c>
       <c r="G469" t="n">
-        <v>-4237.600655895723</v>
+        <v>-4237.600655895731</v>
       </c>
       <c r="H469" t="n">
-        <v>-9.123858055132441</v>
+        <v>-9.123858055132454</v>
       </c>
     </row>
     <row r="470">
@@ -12669,10 +12669,10 @@
         <v>42201.03823033143</v>
       </c>
       <c r="G470" t="n">
-        <v>-2484.084004495715</v>
+        <v>-2484.084004495722</v>
       </c>
       <c r="H470" t="n">
-        <v>-5.886310168336838</v>
+        <v>-5.886310168336854</v>
       </c>
     </row>
     <row r="471">
@@ -12825,10 +12825,10 @@
         <v>30309.39648000864</v>
       </c>
       <c r="G476" t="n">
-        <v>-863.4388560878251</v>
+        <v>-863.4388560878288</v>
       </c>
       <c r="H476" t="n">
-        <v>-2.848749748802583</v>
+        <v>-2.848749748802595</v>
       </c>
     </row>
     <row r="477">
@@ -12836,7 +12836,7 @@
         <v>44717</v>
       </c>
       <c r="B477" t="n">
-        <v>30461.31934489708</v>
+        <v>30461.31934489709</v>
       </c>
       <c r="C477" t="n">
         <v>31792.30994327541</v>
@@ -12868,10 +12868,10 @@
         <v>31370.67194769253</v>
       </c>
       <c r="D478" t="n">
-        <v>26762.64903790391</v>
+        <v>26762.64903790392</v>
       </c>
       <c r="E478" t="n">
-        <v>26762.64903790391</v>
+        <v>26762.64903790392</v>
       </c>
       <c r="F478" t="n">
         <v>29910.28372359636</v>
@@ -12880,7 +12880,7 @@
         <v>-3147.634685692443</v>
       </c>
       <c r="H478" t="n">
-        <v>-10.52358685320414</v>
+        <v>-10.52358685320413</v>
       </c>
     </row>
     <row r="479">
@@ -12906,7 +12906,7 @@
         <v>-6184.30583840132</v>
       </c>
       <c r="H479" t="n">
-        <v>-23.12964142454392</v>
+        <v>-23.12964142454391</v>
       </c>
     </row>
     <row r="480">
@@ -12955,10 +12955,10 @@
         <v>21028.23822672836</v>
       </c>
       <c r="G481" t="n">
-        <v>-1731.162143935537</v>
+        <v>-1731.16214393554</v>
       </c>
       <c r="H481" t="n">
-        <v>-8.232559120122145</v>
+        <v>-8.232559120122161</v>
       </c>
     </row>
     <row r="482">
@@ -12969,7 +12969,7 @@
         <v>20970.14026490413</v>
       </c>
       <c r="C482" t="n">
-        <v>21731.11658339727</v>
+        <v>21731.11658339728</v>
       </c>
       <c r="D482" t="n">
         <v>20190.11466952338</v>
@@ -12981,10 +12981,10 @@
         <v>19297.31418558276</v>
       </c>
       <c r="G482" t="n">
-        <v>1563.1352074795</v>
+        <v>1563.135207479496</v>
       </c>
       <c r="H482" t="n">
-        <v>8.100273397876974</v>
+        <v>8.100273397876952</v>
       </c>
     </row>
     <row r="483">
@@ -13001,16 +13001,16 @@
         <v>19323.914856106</v>
       </c>
       <c r="E483" t="n">
-        <v>20779.34453985091</v>
+        <v>20779.34453985092</v>
       </c>
       <c r="F483" t="n">
         <v>20856.35296768496</v>
       </c>
       <c r="G483" t="n">
-        <v>-77.00842783404732</v>
+        <v>-77.00842783404369</v>
       </c>
       <c r="H483" t="n">
-        <v>-0.3692324729705377</v>
+        <v>-0.3692324729705203</v>
       </c>
     </row>
     <row r="484">
@@ -13033,10 +13033,10 @@
         <v>20781.91150399667</v>
       </c>
       <c r="G484" t="n">
-        <v>1827.253266672371</v>
+        <v>1827.253266672375</v>
       </c>
       <c r="H484" t="n">
-        <v>8.792517792797657</v>
+        <v>8.792517792797677</v>
       </c>
     </row>
     <row r="485">
@@ -13128,7 +13128,7 @@
         <v>24136.97242466408</v>
       </c>
       <c r="D488" t="n">
-        <v>20877.55369221935</v>
+        <v>20877.55369221936</v>
       </c>
       <c r="E488" t="n">
         <v>21534.12123081417</v>
@@ -13189,10 +13189,10 @@
         <v>19615.1533628598</v>
       </c>
       <c r="G490" t="n">
-        <v>371.5604763601659</v>
+        <v>371.5604763601623</v>
       </c>
       <c r="H490" t="n">
-        <v>1.894252211474905</v>
+        <v>1.894252211474886</v>
       </c>
     </row>
     <row r="491">
@@ -13212,13 +13212,13 @@
         <v>21769.25633955668</v>
       </c>
       <c r="F491" t="n">
-        <v>19988.78981843318</v>
+        <v>19988.78981843317</v>
       </c>
       <c r="G491" t="n">
-        <v>1780.466521123508</v>
+        <v>1780.466521123511</v>
       </c>
       <c r="H491" t="n">
-        <v>8.907325242279574</v>
+        <v>8.907325242279594</v>
       </c>
     </row>
     <row r="492">
@@ -13319,10 +13319,10 @@
         <v>19044.0678498115</v>
       </c>
       <c r="G495" t="n">
-        <v>402.3583443211792</v>
+        <v>402.3583443211828</v>
       </c>
       <c r="H495" t="n">
-        <v>2.112775209027423</v>
+        <v>2.112775209027442</v>
       </c>
     </row>
     <row r="496">
@@ -13345,10 +13345,10 @@
         <v>19446.41622513377</v>
       </c>
       <c r="G496" t="n">
-        <v>-178.323424271839</v>
+        <v>-178.3234242718427</v>
       </c>
       <c r="H496" t="n">
-        <v>-0.9169989071886809</v>
+        <v>-0.9169989071886996</v>
       </c>
     </row>
     <row r="497">
@@ -13397,10 +13397,10 @@
         <v>19567.76958038492</v>
       </c>
       <c r="G498" t="n">
-        <v>1067.834167299352</v>
+        <v>1067.834167299356</v>
       </c>
       <c r="H498" t="n">
-        <v>5.457107223757212</v>
+        <v>5.457107223757231</v>
       </c>
     </row>
     <row r="499">
@@ -13423,10 +13423,10 @@
         <v>20633.69607109532</v>
       </c>
       <c r="G499" t="n">
-        <v>292.7899027261883</v>
+        <v>292.7899027261847</v>
       </c>
       <c r="H499" t="n">
-        <v>1.418989122052363</v>
+        <v>1.418989122052345</v>
       </c>
     </row>
     <row r="500">
@@ -13437,7 +13437,7 @@
         <v>17542.64049535751</v>
       </c>
       <c r="C500" t="n">
-        <v>20602.81672526991</v>
+        <v>20602.8167252699</v>
       </c>
       <c r="D500" t="n">
         <v>15880.77984917233</v>
@@ -13449,7 +13449,7 @@
         <v>20924.62048404909</v>
       </c>
       <c r="G500" t="n">
-        <v>-4571.254766872991</v>
+        <v>-4571.254766872989</v>
       </c>
       <c r="H500" t="n">
         <v>-21.84629714243885</v>
@@ -13746,7 +13746,7 @@
         <v>44962</v>
       </c>
       <c r="B512" t="n">
-        <v>23273.12824099377</v>
+        <v>23273.12824099378</v>
       </c>
       <c r="C512" t="n">
         <v>23723.76965348467</v>
@@ -13761,10 +13761,10 @@
         <v>23774.64896664247</v>
       </c>
       <c r="G512" t="n">
-        <v>-818.9829503450346</v>
+        <v>-818.982950345031</v>
       </c>
       <c r="H512" t="n">
-        <v>-3.44477410158243</v>
+        <v>-3.444774101582414</v>
       </c>
     </row>
     <row r="513">
@@ -13775,22 +13775,22 @@
         <v>22299.01441423769</v>
       </c>
       <c r="C513" t="n">
-        <v>23264.29118769155</v>
+        <v>23264.29118769156</v>
       </c>
       <c r="D513" t="n">
         <v>21651.18378293612</v>
       </c>
       <c r="E513" t="n">
-        <v>21788.20398626059</v>
+        <v>21788.2039862606</v>
       </c>
       <c r="F513" t="n">
         <v>22954.02196417289</v>
       </c>
       <c r="G513" t="n">
-        <v>-1165.817977912295</v>
+        <v>-1165.817977912291</v>
       </c>
       <c r="H513" t="n">
-        <v>-5.078926820458426</v>
+        <v>-5.07892682045841</v>
       </c>
     </row>
     <row r="514">
@@ -13807,16 +13807,16 @@
         <v>21808.10177360093</v>
       </c>
       <c r="E514" t="n">
-        <v>24327.64167228266</v>
+        <v>24327.64167228265</v>
       </c>
       <c r="F514" t="n">
         <v>21786.9992632743</v>
       </c>
       <c r="G514" t="n">
-        <v>2540.642409008356</v>
+        <v>2540.642409008353</v>
       </c>
       <c r="H514" t="n">
-        <v>11.66127734392061</v>
+        <v>11.66127734392059</v>
       </c>
     </row>
     <row r="515">
@@ -13830,7 +13830,7 @@
         <v>24829.14756994915</v>
       </c>
       <c r="D515" t="n">
-        <v>23175.37563584246</v>
+        <v>23175.37563584245</v>
       </c>
       <c r="E515" t="n">
         <v>23561.21291091634</v>
@@ -13839,10 +13839,10 @@
         <v>24336.62334048212</v>
       </c>
       <c r="G515" t="n">
-        <v>-775.4104295657817</v>
+        <v>-775.4104295657853</v>
       </c>
       <c r="H515" t="n">
-        <v>-3.186187412762171</v>
+        <v>-3.186187412762185</v>
       </c>
     </row>
     <row r="516">
@@ -13934,19 +13934,19 @@
         <v>28333.97271137877</v>
       </c>
       <c r="D519" t="n">
-        <v>27307.43676841327</v>
+        <v>27307.43676841328</v>
       </c>
       <c r="E519" t="n">
         <v>27994.32951422271</v>
       </c>
       <c r="F519" t="n">
-        <v>28041.60191749419</v>
+        <v>28041.6019174942</v>
       </c>
       <c r="G519" t="n">
-        <v>-47.2724032714832</v>
+        <v>-47.27240327148684</v>
       </c>
       <c r="H519" t="n">
-        <v>-0.1685795391096811</v>
+        <v>-0.168579539109694</v>
       </c>
     </row>
     <row r="520">
@@ -13954,7 +13954,7 @@
         <v>45018</v>
       </c>
       <c r="B520" t="n">
-        <v>27982.69324845595</v>
+        <v>27982.69324845596</v>
       </c>
       <c r="C520" t="n">
         <v>28478.48460568044</v>
@@ -14047,10 +14047,10 @@
         <v>30317.1456974152</v>
       </c>
       <c r="G523" t="n">
-        <v>-2725.761065508392</v>
+        <v>-2725.761065508388</v>
       </c>
       <c r="H523" t="n">
-        <v>-8.990823518523996</v>
+        <v>-8.990823518523985</v>
       </c>
     </row>
     <row r="524">
@@ -14070,13 +14070,13 @@
         <v>29268.80704316256</v>
       </c>
       <c r="F524" t="n">
-        <v>27591.72952189047</v>
+        <v>27591.72952189048</v>
       </c>
       <c r="G524" t="n">
         <v>1677.077521272084</v>
       </c>
       <c r="H524" t="n">
-        <v>6.078189190501956</v>
+        <v>6.078189190501955</v>
       </c>
     </row>
     <row r="525">
@@ -14087,7 +14087,7 @@
         <v>28788.58732680832</v>
       </c>
       <c r="C525" t="n">
-        <v>29534.38401970495</v>
+        <v>29534.38401970496</v>
       </c>
       <c r="D525" t="n">
         <v>28091.56880389237</v>
@@ -14197,16 +14197,16 @@
         <v>26819.97321970769</v>
       </c>
       <c r="E529" t="n">
-        <v>27119.06719312631</v>
+        <v>27119.06719312632</v>
       </c>
       <c r="F529" t="n">
         <v>28075.59214116691</v>
       </c>
       <c r="G529" t="n">
-        <v>-956.5249480405946</v>
+        <v>-956.524948040591</v>
       </c>
       <c r="H529" t="n">
-        <v>-3.406962685706114</v>
+        <v>-3.4069626857061</v>
       </c>
     </row>
     <row r="530">
@@ -14266,7 +14266,7 @@
         <v>45102</v>
       </c>
       <c r="B532" t="n">
-        <v>29548.93154515488</v>
+        <v>29548.93154515489</v>
       </c>
       <c r="C532" t="n">
         <v>30695.46940748955</v>
@@ -14304,13 +14304,13 @@
         <v>30620.77026344812</v>
       </c>
       <c r="F533" t="n">
-        <v>30480.52397306898</v>
+        <v>30480.52397306897</v>
       </c>
       <c r="G533" t="n">
-        <v>140.2462903791456</v>
+        <v>140.2462903791493</v>
       </c>
       <c r="H533" t="n">
-        <v>0.4601177148498499</v>
+        <v>0.4601177148498619</v>
       </c>
     </row>
     <row r="534">
@@ -14333,10 +14333,10 @@
         <v>30624.51631127161</v>
       </c>
       <c r="G534" t="n">
-        <v>-453.2827395133536</v>
+        <v>-453.28273951335</v>
       </c>
       <c r="H534" t="n">
-        <v>-1.480130281589195</v>
+        <v>-1.480130281589183</v>
       </c>
     </row>
     <row r="535">
@@ -14356,13 +14356,13 @@
         <v>30249.13281029671</v>
       </c>
       <c r="F535" t="n">
-        <v>30172.42295537214</v>
+        <v>30172.42295537213</v>
       </c>
       <c r="G535" t="n">
-        <v>76.70985492456748</v>
+        <v>76.70985492457112</v>
       </c>
       <c r="H535" t="n">
-        <v>0.2542382991184652</v>
+        <v>0.2542382991184773</v>
       </c>
     </row>
     <row r="536">
@@ -14373,7 +14373,7 @@
         <v>29924.7826276906</v>
       </c>
       <c r="C536" t="n">
-        <v>30145.8896255087</v>
+        <v>30145.88962550871</v>
       </c>
       <c r="D536" t="n">
         <v>29771.80282777146</v>
@@ -14489,10 +14489,10 @@
         <v>29283.26294277104</v>
       </c>
       <c r="G540" t="n">
-        <v>-3093.678274110604</v>
+        <v>-3093.678274110607</v>
       </c>
       <c r="H540" t="n">
-        <v>-10.5646637813438</v>
+        <v>-10.56466378134382</v>
       </c>
     </row>
     <row r="541">
@@ -14512,13 +14512,13 @@
         <v>26089.69347166345</v>
       </c>
       <c r="F541" t="n">
-        <v>26188.69065081871</v>
+        <v>26188.69065081872</v>
       </c>
       <c r="G541" t="n">
-        <v>-98.99717915526344</v>
+        <v>-98.99717915526708</v>
       </c>
       <c r="H541" t="n">
-        <v>-0.3780150007315031</v>
+        <v>-0.3780150007315169</v>
       </c>
     </row>
     <row r="542">
@@ -14567,10 +14567,10 @@
         <v>25968.17013346548</v>
       </c>
       <c r="G543" t="n">
-        <v>-135.9438865540833</v>
+        <v>-135.9438865540797</v>
       </c>
       <c r="H543" t="n">
-        <v>-0.5235019866836549</v>
+        <v>-0.5235019866836409</v>
       </c>
     </row>
     <row r="544">
@@ -14607,7 +14607,7 @@
         <v>26725.83189520267</v>
       </c>
       <c r="C545" t="n">
-        <v>27211.11781972406</v>
+        <v>27211.11781972405</v>
       </c>
       <c r="D545" t="n">
         <v>26256.82578674454</v>
@@ -14616,13 +14616,13 @@
         <v>26256.82578674454</v>
       </c>
       <c r="F545" t="n">
-        <v>26532.9947937991</v>
+        <v>26532.99479379911</v>
       </c>
       <c r="G545" t="n">
-        <v>-276.1690070545592</v>
+        <v>-276.1690070545628</v>
       </c>
       <c r="H545" t="n">
-        <v>-1.040851246535884</v>
+        <v>-1.040851246535898</v>
       </c>
     </row>
     <row r="546">
@@ -14645,10 +14645,10 @@
         <v>26253.77529943756</v>
       </c>
       <c r="G546" t="n">
-        <v>1729.975082347166</v>
+        <v>1729.97508234717</v>
       </c>
       <c r="H546" t="n">
-        <v>6.589433567614282</v>
+        <v>6.589433567614297</v>
       </c>
     </row>
     <row r="547">
@@ -14659,7 +14659,7 @@
         <v>27718.08503083364</v>
       </c>
       <c r="C547" t="n">
-        <v>27968.83887078983</v>
+        <v>27968.83887078984</v>
       </c>
       <c r="D547" t="n">
         <v>27415.91198216774</v>
@@ -14720,13 +14720,13 @@
         <v>29993.89652437204</v>
       </c>
       <c r="F549" t="n">
-        <v>27162.62822888162</v>
+        <v>27162.62822888163</v>
       </c>
       <c r="G549" t="n">
-        <v>2831.268295490423</v>
+        <v>2831.268295490419</v>
       </c>
       <c r="H549" t="n">
-        <v>10.42339596755213</v>
+        <v>10.42339596755211</v>
       </c>
     </row>
     <row r="550">
@@ -14760,25 +14760,51 @@
         <v>45235</v>
       </c>
       <c r="B551" t="n">
-        <v>34585.07201189095</v>
+        <v>34915.64547559612</v>
       </c>
       <c r="C551" t="n">
-        <v>34667.77936054675</v>
+        <v>35437.25318108723</v>
       </c>
       <c r="D551" t="n">
         <v>34502.36466323515</v>
       </c>
       <c r="E551" t="n">
-        <v>34667.77936054675</v>
+        <v>35049.35592402364</v>
       </c>
       <c r="F551" t="n">
         <v>34531.74137398919</v>
       </c>
       <c r="G551" t="n">
-        <v>136.0379865575524</v>
+        <v>517.6145500344428</v>
       </c>
       <c r="H551" t="n">
-        <v>0.3939505543152889</v>
+        <v>1.498952932690306</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B552" t="n">
+        <v>36028.66004079326</v>
+      </c>
+      <c r="C552" t="n">
+        <v>37313.96968745709</v>
+      </c>
+      <c r="D552" t="n">
+        <v>35037.36944071989</v>
+      </c>
+      <c r="E552" t="n">
+        <v>37313.96968745709</v>
+      </c>
+      <c r="F552" t="n">
+        <v>35044.78991912894</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2269.179768328147</v>
+      </c>
+      <c r="H552" t="n">
+        <v>6.475084523447329</v>
       </c>
     </row>
   </sheetData>
